--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_HEVg.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_HEVg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/Downloads/passenger data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6A7249-ACC3-5A44-A43B-91C48488D6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32803159-EBE3-DE4F-A0AC-76C3B076DFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="93">
   <si>
     <t>Name:</t>
   </si>
@@ -179,18 +179,6 @@
     <t>vkm/h</t>
   </si>
   <si>
-    <t>Speed limit built area</t>
-  </si>
-  <si>
-    <t>Speed limit expressway</t>
-  </si>
-  <si>
-    <t>Swiss confederation</t>
-  </si>
-  <si>
-    <t>https://www.ch.ch/en/vehicles-and-traffic/how-to-behave-in-road-traffic/traffic-regulations/driving-over-the-speed-limit/</t>
-  </si>
-  <si>
     <t>Mvkm/unit</t>
   </si>
   <si>
@@ -316,6 +304,15 @@
   <si>
     <t>On average, HEVs use 74.2% of the energy of a conventional counterpart.</t>
   </si>
+  <si>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6</t>
+  </si>
 </sst>
 </file>
 
@@ -418,7 +415,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -755,8 +763,8 @@
   <dimension ref="A1:L431"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M353" sqref="M353"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -777,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -786,7 +794,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY()</f>
-        <v>45029</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -840,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -862,7 +870,7 @@
         <v>conv_pass_HEVg</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -891,7 +899,7 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -914,7 +922,7 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -937,7 +945,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -966,11 +974,11 @@
         <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -992,16 +1000,16 @@
         <v>1.1307368766878999E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1051,22 +1059,22 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>38.1</v>
       </c>
       <c r="H14" t="s">
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1085,23 +1093,18 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
         <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
@@ -1125,14 +1128,14 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1157,14 +1160,14 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1189,14 +1192,14 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1221,14 +1224,14 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1253,14 +1256,14 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1285,14 +1288,14 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1317,14 +1320,14 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1349,14 +1352,14 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1381,14 +1384,14 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1413,14 +1416,14 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1445,14 +1448,14 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1477,14 +1480,14 @@
         <v>1.0361882551577053</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1509,14 +1512,14 @@
         <v>2.0668819737492092</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1541,14 +1544,14 @@
         <v>3.0952671101216267</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1573,14 +1576,14 @@
         <v>4.1105269155002482</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1605,14 +1608,14 @@
         <v>5.0699273705344314</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1637,14 +1640,14 @@
         <v>21.260164821534087</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1669,14 +1672,14 @@
         <v>54.385356837417568</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1701,14 +1704,14 @@
         <v>113.2313028897816</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1733,14 +1736,14 @@
         <v>149.38204662081907</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1765,14 +1768,14 @@
         <v>194.36603551684152</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1797,14 +1800,14 @@
         <v>245.56156125483622</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1829,14 +1832,14 @@
         <v>302.13334872465884</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1861,14 +1864,14 @@
         <v>364.78408082350967</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1893,14 +1896,14 @@
         <v>421.91224657334453</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1925,14 +1928,14 @@
         <v>475.04999099699614</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1957,14 +1960,14 @@
         <v>540.52747468836014</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1989,14 +1992,14 @@
         <v>622.88093099256696</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2021,14 +2024,14 @@
         <v>710.73411372105329</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2053,14 +2056,14 @@
         <v>850.88444858482796</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2085,14 +2088,14 @@
         <v>992.40243974593909</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2117,14 +2120,14 @@
         <v>1468.0834677513553</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2152,10 +2155,10 @@
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2183,10 +2186,10 @@
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2214,10 +2217,10 @@
         <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2245,10 +2248,10 @@
         <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2276,10 +2279,10 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2307,10 +2310,10 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2338,10 +2341,10 @@
         <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2369,10 +2372,10 @@
         <v>43</v>
       </c>
       <c r="J55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2400,10 +2403,10 @@
         <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2431,10 +2434,10 @@
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2462,10 +2465,10 @@
         <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2493,10 +2496,10 @@
         <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2524,10 +2527,10 @@
         <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2555,10 +2558,10 @@
         <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2586,10 +2589,10 @@
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2617,13 +2620,13 @@
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L63" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2651,13 +2654,13 @@
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2685,13 +2688,13 @@
         <v>43</v>
       </c>
       <c r="J65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2719,13 +2722,13 @@
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2753,13 +2756,13 @@
         <v>43</v>
       </c>
       <c r="J67" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2787,13 +2790,13 @@
         <v>43</v>
       </c>
       <c r="J68" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L68" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2821,13 +2824,13 @@
         <v>43</v>
       </c>
       <c r="J69" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L69" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2855,13 +2858,13 @@
         <v>43</v>
       </c>
       <c r="J70" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L70" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2889,13 +2892,13 @@
         <v>43</v>
       </c>
       <c r="J71" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L71" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2923,13 +2926,13 @@
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L72" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2957,13 +2960,13 @@
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L73" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2991,13 +2994,13 @@
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L74" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3025,13 +3028,13 @@
         <v>43</v>
       </c>
       <c r="J75" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L75" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3059,13 +3062,13 @@
         <v>43</v>
       </c>
       <c r="J76" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L76" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3093,13 +3096,13 @@
         <v>43</v>
       </c>
       <c r="J77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L77" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3127,13 +3130,13 @@
         <v>43</v>
       </c>
       <c r="J78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L78" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3161,13 +3164,13 @@
         <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L79" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3215,11 +3218,11 @@
         <v>43</v>
       </c>
       <c r="J81" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3247,11 +3250,11 @@
         <v>43</v>
       </c>
       <c r="J82" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3279,11 +3282,11 @@
         <v>43</v>
       </c>
       <c r="J83" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3311,11 +3314,11 @@
         <v>43</v>
       </c>
       <c r="J84" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3343,11 +3346,11 @@
         <v>43</v>
       </c>
       <c r="J85" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3375,11 +3378,11 @@
         <v>43</v>
       </c>
       <c r="J86" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3407,11 +3410,11 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3439,11 +3442,11 @@
         <v>43</v>
       </c>
       <c r="J88" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3471,11 +3474,11 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3503,11 +3506,11 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3535,11 +3538,11 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3567,11 +3570,11 @@
         <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3599,11 +3602,11 @@
         <v>43</v>
       </c>
       <c r="J93" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3631,11 +3634,11 @@
         <v>43</v>
       </c>
       <c r="J94" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3663,13 +3666,13 @@
         <v>43</v>
       </c>
       <c r="J95" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L95" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3697,13 +3700,13 @@
         <v>43</v>
       </c>
       <c r="J96" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L96" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3731,13 +3734,13 @@
         <v>43</v>
       </c>
       <c r="J97" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L97" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3765,13 +3768,13 @@
         <v>43</v>
       </c>
       <c r="J98" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L98" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3799,13 +3802,13 @@
         <v>43</v>
       </c>
       <c r="J99" t="s">
+        <v>64</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L99" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3833,13 +3836,13 @@
         <v>43</v>
       </c>
       <c r="J100" t="s">
+        <v>64</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L100" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3867,13 +3870,13 @@
         <v>43</v>
       </c>
       <c r="J101" t="s">
+        <v>64</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K101" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L101" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3901,13 +3904,13 @@
         <v>43</v>
       </c>
       <c r="J102" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K102" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L102" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3935,13 +3938,13 @@
         <v>43</v>
       </c>
       <c r="J103" t="s">
+        <v>64</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L103" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3969,13 +3972,13 @@
         <v>43</v>
       </c>
       <c r="J104" t="s">
+        <v>64</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L104" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4003,13 +4006,13 @@
         <v>43</v>
       </c>
       <c r="J105" t="s">
+        <v>64</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L105" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4037,13 +4040,13 @@
         <v>43</v>
       </c>
       <c r="J106" t="s">
+        <v>64</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L106" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4071,13 +4074,13 @@
         <v>43</v>
       </c>
       <c r="J107" t="s">
+        <v>64</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L107" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4105,13 +4108,13 @@
         <v>43</v>
       </c>
       <c r="J108" t="s">
+        <v>64</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L108" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4139,13 +4142,13 @@
         <v>43</v>
       </c>
       <c r="J109" t="s">
+        <v>64</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K109" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L109" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4173,13 +4176,13 @@
         <v>43</v>
       </c>
       <c r="J110" t="s">
+        <v>64</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L110" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4207,13 +4210,13 @@
         <v>43</v>
       </c>
       <c r="J111" t="s">
+        <v>64</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L111" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4260,10 +4263,10 @@
         <v>43</v>
       </c>
       <c r="J113" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L113" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4291,10 +4294,10 @@
         <v>43</v>
       </c>
       <c r="J114" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L114" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4322,10 +4325,10 @@
         <v>43</v>
       </c>
       <c r="J115" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L115" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4353,10 +4356,10 @@
         <v>43</v>
       </c>
       <c r="J116" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L116" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4384,10 +4387,10 @@
         <v>43</v>
       </c>
       <c r="J117" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L117" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4415,10 +4418,10 @@
         <v>43</v>
       </c>
       <c r="J118" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L118" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4446,10 +4449,10 @@
         <v>43</v>
       </c>
       <c r="J119" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L119" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4477,10 +4480,10 @@
         <v>43</v>
       </c>
       <c r="J120" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L120" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4508,10 +4511,10 @@
         <v>43</v>
       </c>
       <c r="J121" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L121" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4539,10 +4542,10 @@
         <v>43</v>
       </c>
       <c r="J122" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L122" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4570,10 +4573,10 @@
         <v>43</v>
       </c>
       <c r="J123" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L123" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4601,10 +4604,10 @@
         <v>43</v>
       </c>
       <c r="J124" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L124" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4632,10 +4635,10 @@
         <v>43</v>
       </c>
       <c r="J125" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L125" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4663,10 +4666,10 @@
         <v>43</v>
       </c>
       <c r="J126" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L126" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4694,10 +4697,10 @@
         <v>43</v>
       </c>
       <c r="J127" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L127" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4725,10 +4728,10 @@
         <v>43</v>
       </c>
       <c r="J128" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L128" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4756,10 +4759,10 @@
         <v>43</v>
       </c>
       <c r="J129" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L129" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4787,10 +4790,10 @@
         <v>43</v>
       </c>
       <c r="J130" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L130" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4818,10 +4821,10 @@
         <v>43</v>
       </c>
       <c r="J131" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L131" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4849,10 +4852,10 @@
         <v>43</v>
       </c>
       <c r="J132" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L132" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4880,10 +4883,10 @@
         <v>43</v>
       </c>
       <c r="J133" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L133" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4911,10 +4914,10 @@
         <v>43</v>
       </c>
       <c r="J134" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L134" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4942,10 +4945,10 @@
         <v>43</v>
       </c>
       <c r="J135" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L135" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -4973,10 +4976,10 @@
         <v>43</v>
       </c>
       <c r="J136" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L136" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5004,10 +5007,10 @@
         <v>43</v>
       </c>
       <c r="J137" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L137" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5035,10 +5038,10 @@
         <v>43</v>
       </c>
       <c r="J138" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L138" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5066,10 +5069,10 @@
         <v>43</v>
       </c>
       <c r="J139" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L139" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5097,10 +5100,10 @@
         <v>43</v>
       </c>
       <c r="J140" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L140" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5128,10 +5131,10 @@
         <v>43</v>
       </c>
       <c r="J141" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L141" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5159,10 +5162,10 @@
         <v>43</v>
       </c>
       <c r="J142" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L142" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5190,10 +5193,10 @@
         <v>43</v>
       </c>
       <c r="J143" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L143" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5218,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L144" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -6026,16 +6029,16 @@
         <v>46698.329853862211</v>
       </c>
       <c r="H186" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J186" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K186" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L186" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -6060,16 +6063,16 @@
         <v>45484.239631336401</v>
       </c>
       <c r="H187" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J187" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K187" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L187" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -6094,16 +6097,16 @@
         <v>44247.887323943658</v>
       </c>
       <c r="H188" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J188" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K188" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L188" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -6128,16 +6131,16 @@
         <v>42988.65495507577</v>
       </c>
       <c r="H189" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J189" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K189" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L189" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -6162,16 +6165,16 @@
         <v>41705.901461829992</v>
       </c>
       <c r="H190" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J190" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K190" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L190" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -6196,16 +6199,16 @@
         <v>40398.96160677688</v>
       </c>
       <c r="H191" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J191" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K191" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L191" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -6230,16 +6233,16 @@
         <v>39067.144827586199</v>
       </c>
       <c r="H192" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J192" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K192" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L192" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -6264,16 +6267,16 @@
         <v>37709.734020331431</v>
       </c>
       <c r="H193" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J193" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K193" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L193" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -6298,16 +6301,16 @@
         <v>36325.984251968504</v>
       </c>
       <c r="H194" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J194" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K194" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L194" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -6332,16 +6335,16 @@
         <v>34915.121397131901</v>
       </c>
       <c r="H195" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J195" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K195" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L195" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -6366,16 +6369,16 @@
         <v>33476.340694006307</v>
       </c>
       <c r="H196" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J196" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K196" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L196" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6514,16 +6517,16 @@
         <v>32647.999999999996</v>
       </c>
       <c r="H203" t="s">
+        <v>81</v>
+      </c>
+      <c r="J203" t="s">
         <v>85</v>
       </c>
-      <c r="J203" t="s">
-        <v>89</v>
-      </c>
       <c r="K203" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L203" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -7195,16 +7198,16 @@
         <v>67100</v>
       </c>
       <c r="H238" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J238" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K238" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L238" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -7272,7 +7275,7 @@
         <v>units</v>
       </c>
       <c r="L241" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -7302,7 +7305,7 @@
         <v>units</v>
       </c>
       <c r="L242" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -7332,7 +7335,7 @@
         <v>units</v>
       </c>
       <c r="L243" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -7362,7 +7365,7 @@
         <v>units</v>
       </c>
       <c r="L244" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -7392,7 +7395,7 @@
         <v>units</v>
       </c>
       <c r="L245" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -7422,7 +7425,7 @@
         <v>units</v>
       </c>
       <c r="L246" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -7452,7 +7455,7 @@
         <v>units</v>
       </c>
       <c r="L247" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -7482,7 +7485,7 @@
         <v>units</v>
       </c>
       <c r="L248" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -7512,7 +7515,7 @@
         <v>units</v>
       </c>
       <c r="L249" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -7542,7 +7545,7 @@
         <v>units</v>
       </c>
       <c r="L250" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -7572,7 +7575,7 @@
         <v>units</v>
       </c>
       <c r="L251" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -7602,7 +7605,7 @@
         <v>units</v>
       </c>
       <c r="L252" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -7632,7 +7635,7 @@
         <v>units</v>
       </c>
       <c r="L253" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -7662,7 +7665,7 @@
         <v>units</v>
       </c>
       <c r="L254" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -7692,7 +7695,7 @@
         <v>units</v>
       </c>
       <c r="L255" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -7722,7 +7725,7 @@
         <v>units</v>
       </c>
       <c r="L256" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -7752,7 +7755,7 @@
         <v>units</v>
       </c>
       <c r="L257" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7782,7 +7785,7 @@
         <v>units</v>
       </c>
       <c r="L258" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7812,7 +7815,7 @@
         <v>units</v>
       </c>
       <c r="L259" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7842,7 +7845,7 @@
         <v>units</v>
       </c>
       <c r="L260" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7872,7 +7875,7 @@
         <v>units</v>
       </c>
       <c r="L261" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7902,7 +7905,7 @@
         <v>units</v>
       </c>
       <c r="L262" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7932,7 +7935,7 @@
         <v>units</v>
       </c>
       <c r="L263" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7962,7 +7965,7 @@
         <v>units</v>
       </c>
       <c r="L264" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7992,7 +7995,7 @@
         <v>units</v>
       </c>
       <c r="L265" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -8022,7 +8025,7 @@
         <v>units</v>
       </c>
       <c r="L266" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -8052,7 +8055,7 @@
         <v>units</v>
       </c>
       <c r="L267" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -8082,7 +8085,7 @@
         <v>units</v>
       </c>
       <c r="L268" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -8112,7 +8115,7 @@
         <v>units</v>
       </c>
       <c r="L269" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -8142,7 +8145,7 @@
         <v>units</v>
       </c>
       <c r="L270" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -8172,7 +8175,7 @@
         <v>units</v>
       </c>
       <c r="L271" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -8198,7 +8201,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -8224,7 +8227,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -8250,7 +8253,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -8276,7 +8279,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -8302,7 +8305,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -8328,7 +8331,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -8354,7 +8357,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -8380,7 +8383,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -8406,7 +8409,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -8432,7 +8435,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -8458,7 +8461,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -8484,7 +8487,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -8510,7 +8513,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -8535,7 +8538,7 @@
         <v>1</v>
       </c>
       <c r="L285" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -8560,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="L286" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -8585,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="L287" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -8610,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="L288" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -8635,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="L289" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -8660,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="L290" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -8685,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="L291" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -8710,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="L292" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -8735,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="L293" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -8760,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="L294" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -8785,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="L295" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -8810,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="L296" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -8835,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="L297" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -8860,7 +8863,7 @@
         <v>1</v>
       </c>
       <c r="L298" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -8885,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="L299" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -8910,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="L300" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -8935,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="L301" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -8960,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="L302" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -8985,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="L303" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -9010,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -9035,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -9060,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -9085,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -9110,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -9135,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -9160,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -9185,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -9210,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -9235,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -9260,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -9285,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -9310,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -9335,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -9360,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -9385,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -9410,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -9435,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -9460,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -9485,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -9510,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -9535,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -9560,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="L326" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -9585,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="L327" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -9610,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="L328" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -9635,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="L329" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -9660,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="L330" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -9685,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -9710,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -9735,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="L333" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -9760,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="L334" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -9785,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="L335" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -10182,16 +10185,16 @@
         <v>2.2514008481097408E-5</v>
       </c>
       <c r="H352" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J352" t="s">
+        <v>85</v>
+      </c>
+      <c r="K352" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L352" t="s">
         <v>89</v>
-      </c>
-      <c r="K352" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L352" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
@@ -10220,16 +10223,16 @@
         <v>2.2447888045029572E-5</v>
       </c>
       <c r="H353" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J353" t="s">
+        <v>85</v>
+      </c>
+      <c r="K353" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L353" t="s">
         <v>89</v>
-      </c>
-      <c r="K353" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L353" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -10258,16 +10261,16 @@
         <v>2.2987987607015244E-5</v>
       </c>
       <c r="H354" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J354" t="s">
+        <v>85</v>
+      </c>
+      <c r="K354" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L354" t="s">
         <v>89</v>
-      </c>
-      <c r="K354" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L354" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -10296,16 +10299,16 @@
         <v>2.3591067528804226E-5</v>
       </c>
       <c r="H355" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J355" t="s">
+        <v>85</v>
+      </c>
+      <c r="K355" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L355" t="s">
         <v>89</v>
-      </c>
-      <c r="K355" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L355" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
@@ -10334,16 +10337,16 @@
         <v>2.46167661170131E-5</v>
       </c>
       <c r="H356" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J356" t="s">
+        <v>85</v>
+      </c>
+      <c r="K356" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L356" t="s">
         <v>89</v>
-      </c>
-      <c r="K356" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L356" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
@@ -10372,16 +10375,16 @@
         <v>2.5478352931108559E-5</v>
       </c>
       <c r="H357" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J357" t="s">
+        <v>85</v>
+      </c>
+      <c r="K357" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L357" t="s">
         <v>89</v>
-      </c>
-      <c r="K357" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L357" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -10410,16 +10413,16 @@
         <v>2.622128946597794E-5</v>
       </c>
       <c r="H358" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J358" t="s">
+        <v>85</v>
+      </c>
+      <c r="K358" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L358" t="s">
         <v>89</v>
-      </c>
-      <c r="K358" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L358" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
@@ -10448,16 +10451,16 @@
         <v>2.7008854697288231E-5</v>
       </c>
       <c r="H359" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J359" t="s">
+        <v>85</v>
+      </c>
+      <c r="K359" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L359" t="s">
         <v>89</v>
-      </c>
-      <c r="K359" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L359" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -10486,16 +10489,16 @@
         <v>2.7544165330928177E-5</v>
       </c>
       <c r="H360" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J360" t="s">
+        <v>85</v>
+      </c>
+      <c r="K360" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L360" t="s">
         <v>89</v>
-      </c>
-      <c r="K360" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L360" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -10524,16 +10527,16 @@
         <v>2.8734984508769054E-5</v>
       </c>
       <c r="H361" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J361" t="s">
+        <v>85</v>
+      </c>
+      <c r="K361" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L361" t="s">
         <v>89</v>
-      </c>
-      <c r="K361" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L361" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -10562,16 +10565,16 @@
         <v>2.9454743272957874E-5</v>
       </c>
       <c r="H362" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J362" t="s">
+        <v>85</v>
+      </c>
+      <c r="K362" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L362" t="s">
         <v>89</v>
-      </c>
-      <c r="K362" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L362" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -10600,16 +10603,16 @@
         <v>2.9062759997462238E-5</v>
       </c>
       <c r="H363" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J363" t="s">
+        <v>85</v>
+      </c>
+      <c r="K363" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L363" t="s">
         <v>89</v>
-      </c>
-      <c r="K363" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L363" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -10638,16 +10641,16 @@
         <v>2.8152876166970784E-5</v>
       </c>
       <c r="H364" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J364" t="s">
+        <v>85</v>
+      </c>
+      <c r="K364" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L364" t="s">
         <v>89</v>
-      </c>
-      <c r="K364" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L364" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -10738,22 +10741,22 @@
         <v>1990</v>
       </c>
       <c r="F368" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G368">
         <v>1.6619623743333447</v>
       </c>
       <c r="H368" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J368" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K368" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L368" t="s">
         <v>58</v>
-      </c>
-      <c r="L368" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -10775,22 +10778,22 @@
         <v>1991</v>
       </c>
       <c r="F369" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G369">
         <v>1.6529349561812849</v>
       </c>
       <c r="H369" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J369" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K369" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L369" t="s">
         <v>58</v>
-      </c>
-      <c r="L369" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -10812,22 +10815,22 @@
         <v>1992</v>
       </c>
       <c r="F370" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G370">
         <v>1.6439015880381007</v>
       </c>
       <c r="H370" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J370" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K370" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L370" t="s">
         <v>58</v>
-      </c>
-      <c r="L370" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -10849,22 +10852,22 @@
         <v>1993</v>
       </c>
       <c r="F371" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G371">
         <v>1.6348977095326076</v>
       </c>
       <c r="H371" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J371" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K371" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L371" t="s">
         <v>58</v>
-      </c>
-      <c r="L371" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -10886,22 +10889,22 @@
         <v>1994</v>
       </c>
       <c r="F372" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G372">
         <v>1.6359409990814882</v>
       </c>
       <c r="H372" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J372" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K372" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L372" t="s">
         <v>58</v>
-      </c>
-      <c r="L372" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -10923,22 +10926,22 @@
         <v>1995</v>
       </c>
       <c r="F373" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G373">
         <v>1.627796211649325</v>
       </c>
       <c r="H373" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J373" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K373" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L373" t="s">
         <v>58</v>
-      </c>
-      <c r="L373" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -10960,22 +10963,22 @@
         <v>1996</v>
       </c>
       <c r="F374" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G374">
         <v>1.6201500029414151</v>
       </c>
       <c r="H374" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J374" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K374" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L374" t="s">
         <v>58</v>
-      </c>
-      <c r="L374" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -10997,22 +11000,22 @@
         <v>1997</v>
       </c>
       <c r="F375" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G375">
         <v>1.6129948320503564</v>
       </c>
       <c r="H375" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J375" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K375" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L375" t="s">
         <v>58</v>
-      </c>
-      <c r="L375" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -11034,22 +11037,22 @@
         <v>1998</v>
       </c>
       <c r="F376" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G376">
         <v>1.6062654456809142</v>
       </c>
       <c r="H376" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J376" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K376" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L376" t="s">
         <v>58</v>
-      </c>
-      <c r="L376" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -11071,22 +11074,22 @@
         <v>1999</v>
       </c>
       <c r="F377" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G377">
         <v>1.5998922064513665</v>
       </c>
       <c r="H377" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J377" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K377" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L377" t="s">
         <v>58</v>
-      </c>
-      <c r="L377" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -11108,22 +11111,22 @@
         <v>2000</v>
       </c>
       <c r="F378" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G378">
         <v>1.5938163690116243</v>
       </c>
       <c r="H378" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J378" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K378" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L378" t="s">
         <v>58</v>
-      </c>
-      <c r="L378" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -11145,22 +11148,22 @@
         <v>2001</v>
       </c>
       <c r="F379" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G379">
         <v>1.5906754879369145</v>
       </c>
       <c r="H379" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J379" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K379" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L379" t="s">
         <v>58</v>
-      </c>
-      <c r="L379" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -11182,22 +11185,22 @@
         <v>2002</v>
       </c>
       <c r="F380" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G380">
         <v>1.587189549799211</v>
       </c>
       <c r="H380" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J380" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K380" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L380" t="s">
         <v>58</v>
-      </c>
-      <c r="L380" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -11219,22 +11222,22 @@
         <v>2003</v>
       </c>
       <c r="F381" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G381">
         <v>1.5834524958984122</v>
       </c>
       <c r="H381" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J381" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K381" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L381" t="s">
         <v>58</v>
-      </c>
-      <c r="L381" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -11256,22 +11259,22 @@
         <v>2004</v>
       </c>
       <c r="F382" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G382">
         <v>1.5795519905141138</v>
       </c>
       <c r="H382" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J382" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K382" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L382" t="s">
         <v>58</v>
-      </c>
-      <c r="L382" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -11293,22 +11296,22 @@
         <v>2005</v>
       </c>
       <c r="F383" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G383">
         <v>1.5742273401858171</v>
       </c>
       <c r="H383" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J383" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K383" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L383" t="s">
         <v>58</v>
-      </c>
-      <c r="L383" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -11330,22 +11333,22 @@
         <v>2006</v>
       </c>
       <c r="F384" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G384">
         <v>1.5770757432902991</v>
       </c>
       <c r="H384" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J384" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K384" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L384" t="s">
         <v>58</v>
-      </c>
-      <c r="L384" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -11367,22 +11370,22 @@
         <v>2007</v>
       </c>
       <c r="F385" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G385">
         <v>1.5810502599514888</v>
       </c>
       <c r="H385" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J385" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K385" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L385" t="s">
         <v>58</v>
-      </c>
-      <c r="L385" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -11404,22 +11407,22 @@
         <v>2008</v>
       </c>
       <c r="F386" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G386">
         <v>1.5868573677903355</v>
       </c>
       <c r="H386" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J386" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K386" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L386" t="s">
         <v>58</v>
-      </c>
-      <c r="L386" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -11441,22 +11444,22 @@
         <v>2009</v>
       </c>
       <c r="F387" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G387">
         <v>1.5941421065031705</v>
       </c>
       <c r="H387" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J387" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K387" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L387" t="s">
         <v>58</v>
-      </c>
-      <c r="L387" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -11478,22 +11481,22 @@
         <v>2010</v>
       </c>
       <c r="F388" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G388">
         <v>1.6027499464678339</v>
       </c>
       <c r="H388" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J388" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K388" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L388" t="s">
         <v>58</v>
-      </c>
-      <c r="L388" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -11515,22 +11518,22 @@
         <v>2011</v>
       </c>
       <c r="F389" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G389">
         <v>1.5952803755147054</v>
       </c>
       <c r="H389" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J389" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K389" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L389" t="s">
         <v>58</v>
-      </c>
-      <c r="L389" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -11552,22 +11555,22 @@
         <v>2012</v>
       </c>
       <c r="F390" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G390">
         <v>1.5881061022973417</v>
       </c>
       <c r="H390" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J390" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K390" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L390" t="s">
         <v>58</v>
-      </c>
-      <c r="L390" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -11589,22 +11592,22 @@
         <v>2013</v>
       </c>
       <c r="F391" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G391">
         <v>1.580437033556165</v>
       </c>
       <c r="H391" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J391" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K391" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L391" t="s">
         <v>58</v>
-      </c>
-      <c r="L391" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -11626,22 +11629,22 @@
         <v>2014</v>
       </c>
       <c r="F392" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G392">
         <v>1.5720933219641362</v>
       </c>
       <c r="H392" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J392" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K392" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L392" t="s">
         <v>58</v>
-      </c>
-      <c r="L392" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -11663,22 +11666,22 @@
         <v>2015</v>
       </c>
       <c r="F393" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G393">
         <v>1.5638595650126308</v>
       </c>
       <c r="H393" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J393" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K393" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L393" t="s">
         <v>58</v>
-      </c>
-      <c r="L393" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -11700,22 +11703,22 @@
         <v>2016</v>
       </c>
       <c r="F394" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G394">
         <v>1.5655707775003618</v>
       </c>
       <c r="H394" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J394" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K394" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L394" t="s">
         <v>58</v>
-      </c>
-      <c r="L394" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -11737,22 +11740,22 @@
         <v>2017</v>
       </c>
       <c r="F395" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G395">
         <v>1.5669067656006332</v>
       </c>
       <c r="H395" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J395" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K395" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L395" t="s">
         <v>58</v>
-      </c>
-      <c r="L395" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -11774,22 +11777,22 @@
         <v>2018</v>
       </c>
       <c r="F396" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G396">
         <v>1.5680560012794198</v>
       </c>
       <c r="H396" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J396" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K396" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L396" t="s">
         <v>58</v>
-      </c>
-      <c r="L396" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -11811,22 +11814,22 @@
         <v>2019</v>
       </c>
       <c r="F397" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G397">
         <v>1.56899278989477</v>
       </c>
       <c r="H397" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J397" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K397" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L397" t="s">
         <v>58</v>
-      </c>
-      <c r="L397" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -11848,22 +11851,22 @@
         <v>2020</v>
       </c>
       <c r="F398" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G398">
         <v>1.5830542936008962</v>
       </c>
       <c r="H398" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J398" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K398" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L398" t="s">
         <v>58</v>
-      </c>
-      <c r="L398" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -11885,22 +11888,22 @@
         <v>2021</v>
       </c>
       <c r="F399" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G399">
         <v>1.5781479220274037</v>
       </c>
       <c r="H399" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J399" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K399" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L399" t="s">
         <v>58</v>
-      </c>
-      <c r="L399" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
@@ -11922,23 +11925,23 @@
         <v>1990</v>
       </c>
       <c r="F400" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G400">
         <f>G368</f>
         <v>1.6619623743333447</v>
       </c>
       <c r="H400" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J400" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K400" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L400" t="s">
         <v>58</v>
-      </c>
-      <c r="L400" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -11960,23 +11963,23 @@
         <v>1991</v>
       </c>
       <c r="F401" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G401">
         <f t="shared" ref="G401:G431" si="16">G369</f>
         <v>1.6529349561812849</v>
       </c>
       <c r="H401" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J401" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K401" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L401" t="s">
         <v>58</v>
-      </c>
-      <c r="L401" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -11998,23 +12001,23 @@
         <v>1992</v>
       </c>
       <c r="F402" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G402">
         <f t="shared" si="16"/>
         <v>1.6439015880381007</v>
       </c>
       <c r="H402" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J402" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K402" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L402" t="s">
         <v>58</v>
-      </c>
-      <c r="L402" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -12036,23 +12039,23 @@
         <v>1993</v>
       </c>
       <c r="F403" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G403">
         <f t="shared" si="16"/>
         <v>1.6348977095326076</v>
       </c>
       <c r="H403" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J403" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K403" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L403" t="s">
         <v>58</v>
-      </c>
-      <c r="L403" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -12074,23 +12077,23 @@
         <v>1994</v>
       </c>
       <c r="F404" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G404">
         <f t="shared" si="16"/>
         <v>1.6359409990814882</v>
       </c>
       <c r="H404" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J404" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K404" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L404" t="s">
         <v>58</v>
-      </c>
-      <c r="L404" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -12112,23 +12115,23 @@
         <v>1995</v>
       </c>
       <c r="F405" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G405">
         <f t="shared" si="16"/>
         <v>1.627796211649325</v>
       </c>
       <c r="H405" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J405" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K405" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L405" t="s">
         <v>58</v>
-      </c>
-      <c r="L405" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -12150,23 +12153,23 @@
         <v>1996</v>
       </c>
       <c r="F406" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G406">
         <f t="shared" si="16"/>
         <v>1.6201500029414151</v>
       </c>
       <c r="H406" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J406" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K406" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L406" t="s">
         <v>58</v>
-      </c>
-      <c r="L406" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -12188,23 +12191,23 @@
         <v>1997</v>
       </c>
       <c r="F407" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G407">
         <f t="shared" si="16"/>
         <v>1.6129948320503564</v>
       </c>
       <c r="H407" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J407" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K407" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L407" t="s">
         <v>58</v>
-      </c>
-      <c r="L407" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -12226,23 +12229,23 @@
         <v>1998</v>
       </c>
       <c r="F408" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G408">
         <f t="shared" si="16"/>
         <v>1.6062654456809142</v>
       </c>
       <c r="H408" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J408" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K408" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L408" t="s">
         <v>58</v>
-      </c>
-      <c r="L408" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -12264,23 +12267,23 @@
         <v>1999</v>
       </c>
       <c r="F409" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G409">
         <f t="shared" si="16"/>
         <v>1.5998922064513665</v>
       </c>
       <c r="H409" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J409" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K409" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L409" t="s">
         <v>58</v>
-      </c>
-      <c r="L409" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -12302,23 +12305,23 @@
         <v>2000</v>
       </c>
       <c r="F410" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G410">
         <f t="shared" si="16"/>
         <v>1.5938163690116243</v>
       </c>
       <c r="H410" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J410" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K410" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L410" t="s">
         <v>58</v>
-      </c>
-      <c r="L410" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -12340,23 +12343,23 @@
         <v>2001</v>
       </c>
       <c r="F411" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G411">
         <f t="shared" si="16"/>
         <v>1.5906754879369145</v>
       </c>
       <c r="H411" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J411" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K411" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L411" t="s">
         <v>58</v>
-      </c>
-      <c r="L411" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -12378,23 +12381,23 @@
         <v>2002</v>
       </c>
       <c r="F412" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G412">
         <f t="shared" si="16"/>
         <v>1.587189549799211</v>
       </c>
       <c r="H412" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J412" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K412" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L412" t="s">
         <v>58</v>
-      </c>
-      <c r="L412" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -12416,23 +12419,23 @@
         <v>2003</v>
       </c>
       <c r="F413" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G413">
         <f t="shared" si="16"/>
         <v>1.5834524958984122</v>
       </c>
       <c r="H413" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J413" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K413" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L413" t="s">
         <v>58</v>
-      </c>
-      <c r="L413" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -12454,23 +12457,23 @@
         <v>2004</v>
       </c>
       <c r="F414" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G414">
         <f t="shared" si="16"/>
         <v>1.5795519905141138</v>
       </c>
       <c r="H414" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J414" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K414" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L414" t="s">
         <v>58</v>
-      </c>
-      <c r="L414" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -12492,23 +12495,23 @@
         <v>2005</v>
       </c>
       <c r="F415" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G415">
         <f t="shared" si="16"/>
         <v>1.5742273401858171</v>
       </c>
       <c r="H415" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J415" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K415" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L415" t="s">
         <v>58</v>
-      </c>
-      <c r="L415" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -12530,23 +12533,23 @@
         <v>2006</v>
       </c>
       <c r="F416" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G416">
         <f t="shared" si="16"/>
         <v>1.5770757432902991</v>
       </c>
       <c r="H416" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J416" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K416" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L416" t="s">
         <v>58</v>
-      </c>
-      <c r="L416" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -12568,23 +12571,23 @@
         <v>2007</v>
       </c>
       <c r="F417" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G417">
         <f t="shared" si="16"/>
         <v>1.5810502599514888</v>
       </c>
       <c r="H417" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J417" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K417" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L417" t="s">
         <v>58</v>
-      </c>
-      <c r="L417" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -12606,23 +12609,23 @@
         <v>2008</v>
       </c>
       <c r="F418" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G418">
         <f t="shared" si="16"/>
         <v>1.5868573677903355</v>
       </c>
       <c r="H418" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J418" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K418" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L418" t="s">
         <v>58</v>
-      </c>
-      <c r="L418" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -12644,23 +12647,23 @@
         <v>2009</v>
       </c>
       <c r="F419" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G419">
         <f t="shared" si="16"/>
         <v>1.5941421065031705</v>
       </c>
       <c r="H419" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J419" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K419" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L419" t="s">
         <v>58</v>
-      </c>
-      <c r="L419" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -12682,23 +12685,23 @@
         <v>2010</v>
       </c>
       <c r="F420" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G420">
         <f t="shared" si="16"/>
         <v>1.6027499464678339</v>
       </c>
       <c r="H420" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J420" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K420" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L420" t="s">
         <v>58</v>
-      </c>
-      <c r="L420" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -12720,23 +12723,23 @@
         <v>2011</v>
       </c>
       <c r="F421" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G421">
         <f t="shared" si="16"/>
         <v>1.5952803755147054</v>
       </c>
       <c r="H421" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J421" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K421" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L421" t="s">
         <v>58</v>
-      </c>
-      <c r="L421" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
@@ -12758,23 +12761,23 @@
         <v>2012</v>
       </c>
       <c r="F422" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G422">
         <f t="shared" si="16"/>
         <v>1.5881061022973417</v>
       </c>
       <c r="H422" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J422" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K422" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L422" t="s">
         <v>58</v>
-      </c>
-      <c r="L422" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -12796,23 +12799,23 @@
         <v>2013</v>
       </c>
       <c r="F423" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G423">
         <f t="shared" si="16"/>
         <v>1.580437033556165</v>
       </c>
       <c r="H423" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J423" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K423" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L423" t="s">
         <v>58</v>
-      </c>
-      <c r="L423" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -12834,23 +12837,23 @@
         <v>2014</v>
       </c>
       <c r="F424" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G424">
         <f t="shared" si="16"/>
         <v>1.5720933219641362</v>
       </c>
       <c r="H424" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J424" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K424" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L424" t="s">
         <v>58</v>
-      </c>
-      <c r="L424" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
@@ -12872,23 +12875,23 @@
         <v>2015</v>
       </c>
       <c r="F425" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G425">
         <f t="shared" si="16"/>
         <v>1.5638595650126308</v>
       </c>
       <c r="H425" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J425" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K425" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L425" t="s">
         <v>58</v>
-      </c>
-      <c r="L425" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -12910,23 +12913,23 @@
         <v>2016</v>
       </c>
       <c r="F426" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G426">
         <f t="shared" si="16"/>
         <v>1.5655707775003618</v>
       </c>
       <c r="H426" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J426" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K426" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L426" t="s">
         <v>58</v>
-      </c>
-      <c r="L426" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -12948,23 +12951,23 @@
         <v>2017</v>
       </c>
       <c r="F427" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G427">
         <f t="shared" si="16"/>
         <v>1.5669067656006332</v>
       </c>
       <c r="H427" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J427" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K427" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L427" t="s">
         <v>58</v>
-      </c>
-      <c r="L427" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -12986,23 +12989,23 @@
         <v>2018</v>
       </c>
       <c r="F428" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G428">
         <f t="shared" si="16"/>
         <v>1.5680560012794198</v>
       </c>
       <c r="H428" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J428" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K428" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L428" t="s">
         <v>58</v>
-      </c>
-      <c r="L428" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -13024,23 +13027,23 @@
         <v>2019</v>
       </c>
       <c r="F429" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G429">
         <f t="shared" si="16"/>
         <v>1.56899278989477</v>
       </c>
       <c r="H429" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J429" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K429" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L429" t="s">
         <v>58</v>
-      </c>
-      <c r="L429" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -13062,23 +13065,23 @@
         <v>2020</v>
       </c>
       <c r="F430" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G430">
         <f t="shared" si="16"/>
         <v>1.5830542936008962</v>
       </c>
       <c r="H430" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J430" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K430" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L430" t="s">
         <v>58</v>
-      </c>
-      <c r="L430" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
@@ -13100,38 +13103,41 @@
         <v>2021</v>
       </c>
       <c r="F431" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G431">
         <f t="shared" si="16"/>
         <v>1.5781479220274037</v>
       </c>
       <c r="H431" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J431" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K431" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L431" t="s">
         <v>58</v>
-      </c>
-      <c r="L431" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:L847" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J14:L14 J15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K14" r:id="rId1" xr:uid="{D11E7F0F-E127-5643-8C05-AF28547E6E27}"/>
-    <hyperlink ref="K15" r:id="rId2" xr:uid="{AB382EBD-FD85-A94C-A2D5-AE3D74C6342F}"/>
-    <hyperlink ref="K368" r:id="rId3" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
-    <hyperlink ref="K369:K431" r:id="rId4" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
-    <hyperlink ref="K63" r:id="rId5" xr:uid="{57AB3A29-B7EE-E947-B9C6-AC202A168188}"/>
-    <hyperlink ref="K48:K62" r:id="rId6" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{2359E783-4D2C-8F4A-A467-29657ABB57EB}"/>
-    <hyperlink ref="K64:K79" r:id="rId7" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{0289099E-436D-CD44-8E73-16472E7870FA}"/>
-    <hyperlink ref="K82:K111" r:id="rId8" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{85D40114-E1AF-3E41-AE4C-31D352EA8EA0}"/>
-    <hyperlink ref="K203" r:id="rId9" xr:uid="{12247499-66B3-7946-8312-C49FDE1A2E0C}"/>
+    <hyperlink ref="K368" r:id="rId1" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
+    <hyperlink ref="K369:K431" r:id="rId2" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
+    <hyperlink ref="K63" r:id="rId3" xr:uid="{57AB3A29-B7EE-E947-B9C6-AC202A168188}"/>
+    <hyperlink ref="K48:K62" r:id="rId4" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{2359E783-4D2C-8F4A-A467-29657ABB57EB}"/>
+    <hyperlink ref="K64:K79" r:id="rId5" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{0289099E-436D-CD44-8E73-16472E7870FA}"/>
+    <hyperlink ref="K82:K111" r:id="rId6" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{85D40114-E1AF-3E41-AE4C-31D352EA8EA0}"/>
+    <hyperlink ref="K203" r:id="rId7" xr:uid="{12247499-66B3-7946-8312-C49FDE1A2E0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
